--- a/单个项目测试数据/权重.xlsx
+++ b/单个项目测试数据/权重.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="权重" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -959,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -970,7 +970,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1014,9 +1014,6 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
         <v>0.9</v>
       </c>
